--- a/biology/Biochimie/Pseudouridine_synthase/Pseudouridine_synthase.xlsx
+++ b/biology/Biochimie/Pseudouridine_synthase/Pseudouridine_synthase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les pseudouridine synthases sont une famille d'isomérases qui catalysent les réactions :
 résidu d'uridine d'ARN ribosomique  
@@ -491,7 +503,7 @@
         ⇌
     {\displaystyle \rightleftharpoons }
   résidu de pseudouridine d'ARN de transfert.
-Par exemple, l’ARNt pseudouridine synthase I (TruA), ou ARNt pseudouridine38-40 synthase (EC 5.4.99.12), isomérise l'uridine en pseudouridine en position 38, 39 et 40 d'à peu près tous les ARN de transfert[1].
+Par exemple, l’ARNt pseudouridine synthase I (TruA), ou ARNt pseudouridine38-40 synthase (EC 5.4.99.12), isomérise l'uridine en pseudouridine en position 38, 39 et 40 d'à peu près tous les ARN de transfert.
 Il existe une grande variété de pseudouridine synthases, qui se distinguent par la nature de l'ARN traité et par la position et le nombre de résidus d'uridine isomérisés :
 </t>
         </is>
